--- a/biology/Botanique/Buchnera_(végétal)/Buchnera_(végétal).xlsx
+++ b/biology/Botanique/Buchnera_(végétal)/Buchnera_(végétal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buchnera_(v%C3%A9g%C3%A9tal)</t>
+          <t>Buchnera_(végétal)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buchnera est un genre de plantes de la famille des Orobanchaceae (anciennement Scrophulariaceae) comportant 138 espèces. L'espèce type est Buchnera americana L..
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buchnera_(v%C3%A9g%C3%A9tal)</t>
+          <t>Buchnera_(végétal)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Buchnera présente une large répartition mondiale plutôt pantropicale et nord-américaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buchnera_(v%C3%A9g%C3%A9tal)</t>
+          <t>Buchnera_(végétal)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[2] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Buchnera_(végétal)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchnera_(v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Buchnera affinis De Wild.
 Buchnera albiflora Skan
 Buchnera americana L.
@@ -684,7 +736,43 @@
 Buchnera virgata Kunth
 Buchnera welwitschii Engl.
 Buchnera wildii Philcox
-Taxons non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Buchnera_(végétal)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buchnera_(v%C3%A9g%C3%A9tal)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxons non résolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Buchnera africana L.
 Buchnera angustifolia Raf.
 Buchnera aquatica Wight ex Steud.
